--- a/11_KS_연도별_보고서작성/Data/Output/Yearly-Report-2023-IT231232.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Output/Yearly-Report-2023-IT231232.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647F9368-0A41-467B-845F-BE9482693298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0D90F-6A31-4DC3-94A9-1562EDE99D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6510" yWindow="-23610" windowWidth="17910" windowHeight="10935" xr2:uid="{25B93CB8-9190-46E7-B78E-410A2B05F6EB}"/>
+    <workbookView xWindow="-6075" yWindow="-16500" windowWidth="17235" windowHeight="12165" xr2:uid="{8E3771DF-F757-4008-84B6-DCBBDC16B78A}"/>
   </bookViews>
   <sheets>
     <sheet name="Report-2023-IT231232" sheetId="2" r:id="rId1"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7C3D83-E3DA-4FB2-B29D-1C16EA5CC5F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD654AED-64C8-4187-9C17-FF2D38D81584}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF012C-C5D4-422F-8763-313BE1D2C451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F008D1A-13FC-46D4-B582-05EB0B0E002C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
